--- a/src/test/resources/TestScenarios/API Scenarios.xlsx
+++ b/src/test/resources/TestScenarios/API Scenarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs640204\Desktop\API_and_selenium_Practice\PetStoreScenariosFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\seleniumFramework\ApiDemo\src\test\resources\TestScenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666C106E-EE3E-40D6-AF98-2090AEC3987D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4516C824-533E-40A4-816A-0BD9B41BDE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D8ADC261-B85B-46A9-918F-AD18DFBB2676}"/>
   </bookViews>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29C87C6-3570-4472-A3C3-7A5E74AEA437}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/TestScenarios/API Scenarios.xlsx
+++ b/src/test/resources/TestScenarios/API Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\seleniumFramework\ApiDemo\src\test\resources\TestScenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4516C824-533E-40A4-816A-0BD9B41BDE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9579A0B0-11CF-48AF-8483-8D9EA56E4631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D8ADC261-B85B-46A9-918F-AD18DFBB2676}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
